--- a/python/python-demo/src/demo01/coding20210115/data2.xlsx
+++ b/python/python-demo/src/demo01/coding20210115/data2.xlsx
@@ -420,16 +420,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.9280639743267786</v>
+        <v>0.5434735145568895</v>
       </c>
       <c r="C2">
-        <v>0.7397632287234189</v>
+        <v>0.7968527832693363</v>
       </c>
       <c r="D2">
-        <v>0.9981609021301771</v>
+        <v>0.4517747184857247</v>
       </c>
       <c r="E2">
-        <v>0.4129184738311159</v>
+        <v>0.8020888388914804</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -437,16 +437,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.3292935555350684</v>
+        <v>0.6774710884148347</v>
       </c>
       <c r="C3">
-        <v>0.9312448860840254</v>
+        <v>0.03262315547068928</v>
       </c>
       <c r="D3">
-        <v>0.2752619663681346</v>
+        <v>0.3797892652134599</v>
       </c>
       <c r="E3">
-        <v>0.7473575683104011</v>
+        <v>0.1684723978953562</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -454,16 +454,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.7051077498275933</v>
+        <v>0.9996554056939493</v>
       </c>
       <c r="C4">
-        <v>0.1285570860725401</v>
+        <v>0.945261158200265</v>
       </c>
       <c r="D4">
-        <v>0.4012454500080272</v>
+        <v>0.4105581931411988</v>
       </c>
       <c r="E4">
-        <v>0.2771076323705967</v>
+        <v>0.7024075642341124</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -471,16 +471,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.2972814011000274</v>
+        <v>0.3322666352986278</v>
       </c>
       <c r="C5">
-        <v>0.2556347700543092</v>
+        <v>0.5391080299297707</v>
       </c>
       <c r="D5">
-        <v>0.9520770723970957</v>
+        <v>0.9557394917986013</v>
       </c>
       <c r="E5">
-        <v>0.78315744716297</v>
+        <v>0.2871649294014769</v>
       </c>
     </row>
   </sheetData>
